--- a/40081458-D2/Problem 6/User_stories.xlsx
+++ b/40081458-D2/Problem 6/User_stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MApComSci\Summer 2019\SOEN 6481 SRS\Project\CalcUS\40081458-D2\Problem 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2FE15-762D-4642-A18D-785DBEAC70E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335ECD7E-8479-476E-8BEA-CECE96097FFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F16A5746-8D65-48F9-9543-3629027A7C9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="179">
   <si>
     <t>Theme</t>
   </si>
@@ -547,6 +547,30 @@
   </si>
   <si>
     <t>As an Investment Analyst, I want to calculate profit using 'profit' option.</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>As a user, I need log(n) funtion to calculate the value of log(n) base 10.</t>
+  </si>
+  <si>
+    <t>Given value of n, where n is a real number, it shall give correct value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>As a user, I need a ln(n) function to calculate natural log of n.</t>
+  </si>
+  <si>
+    <t>Given the value of n, where n is a real number, it shall provide correct value of ln(n).</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C92AFD-3DAE-40DC-BACA-F4A36B5E4E15}">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,18 +1063,18 @@
     <col min="12" max="12" width="87" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1090,30 +1114,27 @@
       <c r="O1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>30</v>
+      <c r="P1" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="U1" s="9" t="s">
         <v>161</v>
       </c>
+      <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
       <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
@@ -1154,13 +1175,12 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
@@ -1197,17 +1217,16 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -1240,17 +1259,16 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -1287,17 +1305,16 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -1338,13 +1355,12 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -1385,13 +1401,12 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
@@ -1432,13 +1447,12 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
@@ -1474,22 +1488,21 @@
         <v>13</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="14" t="s">
-        <v>122</v>
+      <c r="P9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
@@ -1520,19 +1533,18 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
@@ -1567,19 +1579,18 @@
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="10" t="s">
+      <c r="Q11" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
@@ -1614,19 +1625,18 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
@@ -1661,19 +1671,18 @@
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
@@ -1709,18 +1718,17 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1756,18 +1764,17 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
@@ -1808,13 +1815,12 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -1850,22 +1856,21 @@
         <v>21</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="14" t="s">
-        <v>122</v>
+      <c r="P17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>22</v>
       </c>
@@ -1906,13 +1911,12 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
@@ -1949,17 +1953,16 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
@@ -1993,16 +1996,15 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>25</v>
       </c>
@@ -2039,17 +2041,16 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="8"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W21" s="15"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>26</v>
       </c>
@@ -2086,17 +2087,16 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>27</v>
       </c>
@@ -2136,16 +2136,15 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>28</v>
       </c>
@@ -2180,13 +2179,12 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>29</v>
       </c>
@@ -2223,17 +2221,16 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
@@ -2270,17 +2267,16 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>31</v>
       </c>
@@ -2318,18 +2314,17 @@
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
@@ -2365,20 +2360,21 @@
         <v>32</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="15"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>33</v>
       </c>
@@ -2416,24 +2412,23 @@
         <v>33</v>
       </c>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="S29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="T29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="15"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X29" s="15"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>34</v>
       </c>
@@ -2465,20 +2460,19 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="S30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="T30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="15"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="8"/>
       <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>35</v>
       </c>
@@ -2513,13 +2507,94 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>165</v>
       </c>
@@ -2527,25 +2602,25 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D42" s="9"/>
       <c r="E42" s="10" t="s">
         <v>123</v>
